--- a/TestngFramework/src/test/resources/inputData/DataFile.xlsx
+++ b/TestngFramework/src/test/resources/inputData/DataFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaiq\eclipse-workspace\com.tekschool.hotel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suhrab Khiabani\Documents\Class Eagles\TestngFramework\TestngFramework\src\test\resources\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3710FDC-8397-45B9-AF73-F19C33A79703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B523DF-0CAB-49A8-B519-69BF82811484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1095" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -25,48 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>firstName</t>
+    <t>userName</t>
   </si>
   <si>
-    <t>lastName</t>
+    <t>Password</t>
   </si>
   <si>
-    <t>email</t>
+    <t>admin</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Ahmad</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>ahmad.john@gmail.com</t>
-  </si>
-  <si>
-    <t>welcome1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>test@test.com</t>
-  </si>
-  <si>
-    <t>user@test.com</t>
+    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -395,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,68 +379,30 @@
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{AEC963B9-504D-4F67-924C-5EAE91E94728}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{C99EAF03-7C9A-4534-A110-CF482A579FC9}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{429AA696-7376-4302-810E-C1499B96939F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>